--- a/to_predict.xlsx
+++ b/to_predict.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YaZhuo\ML\Predicting Band Gap\Final\model_scikit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python\python_work\works\working_pythons\BandGapPredictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F28CC-90DE-4416-8B9E-62BE5D724778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="9120" yWindow="3330" windowWidth="17880" windowHeight="8445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,33 +20,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Composition</t>
   </si>
   <si>
-    <t>BaCO3</t>
-  </si>
-  <si>
-    <t>TiCo3</t>
-  </si>
-  <si>
-    <t>AgCl</t>
-  </si>
-  <si>
-    <t>Zr2Co</t>
-  </si>
-  <si>
-    <t>LiFeP</t>
-  </si>
-  <si>
-    <t>YAlO3</t>
+    <t>Bi2Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Al0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Sc0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Ga0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Y0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5In0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5La0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi4Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi3.5Al0.5Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi3.5Ga0.5Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi3.5In0.5Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi3.5Sc0.5Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi3.5Y0.5Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi3.5La0.5Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi4Ti2.5Al0.5O12</t>
+  </si>
+  <si>
+    <t>Bi4Ti2.5Ga0.5O12</t>
+  </si>
+  <si>
+    <t>Bi4Ti2.5Sc0.5O12</t>
+  </si>
+  <si>
+    <t>Bi12TiO20</t>
+  </si>
+  <si>
+    <t>BaTaO2N</t>
+  </si>
+  <si>
+    <t>BaTa0.5Al0.5O2N</t>
+  </si>
+  <si>
+    <t>BaTa0.5Mg0.5O2N</t>
+  </si>
+  <si>
+    <t>BaTa0.5Al0.25Mg0.25O2N</t>
+  </si>
+  <si>
+    <t>BaTa0.5Al0.125Mg0.375O2N</t>
+  </si>
+  <si>
+    <t>BaTa0.5Al0.375Mg0.125O2N</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>TiO2</t>
+  </si>
+  <si>
+    <t>Ta2O5</t>
+  </si>
+  <si>
+    <t>Fe2O3</t>
+  </si>
+  <si>
+    <t>NaLaTi2O6</t>
+  </si>
+  <si>
+    <t>NaCl</t>
+  </si>
+  <si>
+    <t>Bi1.5Cr0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Fe0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi4Ti2O11</t>
+  </si>
+  <si>
+    <t>Ta1.94Eu0.06O5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -95,9 +180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,7 +220,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -170,6 +255,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -205,9 +307,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -380,11 +499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,17 +523,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -425,6 +544,146 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/to_predict.xlsx
+++ b/to_predict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python\python_work\works\working_pythons\BandGapPredictor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey-krasnov/Desktop/works/working_pythons/BandGapPredictor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F28CC-90DE-4416-8B9E-62BE5D724778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A126F3-3791-A449-BFE6-52B8DD3728A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="3330" windowWidth="17880" windowHeight="8445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,111 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Composition</t>
-  </si>
-  <si>
-    <t>Bi2Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Al0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Sc0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Ga0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Y0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5In0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5La0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi4Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi3.5Al0.5Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi3.5Ga0.5Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi3.5In0.5Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi3.5Sc0.5Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi3.5Y0.5Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi3.5La0.5Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi4Ti2.5Al0.5O12</t>
-  </si>
-  <si>
-    <t>Bi4Ti2.5Ga0.5O12</t>
-  </si>
-  <si>
-    <t>Bi4Ti2.5Sc0.5O12</t>
-  </si>
-  <si>
-    <t>Bi12TiO20</t>
-  </si>
-  <si>
-    <t>BaTaO2N</t>
-  </si>
-  <si>
-    <t>BaTa0.5Al0.5O2N</t>
-  </si>
-  <si>
-    <t>BaTa0.5Mg0.5O2N</t>
-  </si>
-  <si>
-    <t>BaTa0.5Al0.25Mg0.25O2N</t>
-  </si>
-  <si>
-    <t>BaTa0.5Al0.125Mg0.375O2N</t>
-  </si>
-  <si>
-    <t>BaTa0.5Al0.375Mg0.125O2N</t>
-  </si>
-  <si>
-    <t>Al2O3</t>
-  </si>
-  <si>
-    <t>TiO2</t>
-  </si>
-  <si>
-    <t>Ta2O5</t>
-  </si>
-  <si>
-    <t>Fe2O3</t>
-  </si>
-  <si>
-    <t>NaLaTi2O6</t>
-  </si>
-  <si>
-    <t>NaCl</t>
-  </si>
-  <si>
-    <t>Bi1.5Cr0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Fe0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi4Ti2O11</t>
-  </si>
-  <si>
-    <t>Ta1.94Eu0.06O5</t>
   </si>
 </sst>
 </file>
@@ -500,190 +398,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A35"/>
+      <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/to_predict.xlsx
+++ b/to_predict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey-krasnov/Desktop/works/working_pythons/BandGapPredictor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python\python_work\works\working_pythons\BandGapPredictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A126F3-3791-A449-BFE6-52B8DD3728A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEB7BF9-8CBC-448D-B730-F6B00C014CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,285 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>Composition</t>
+  </si>
+  <si>
+    <t>Bi1.75Al0.25Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.875Al0.125Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.9375Al0.0625Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Li0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Na0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Cu0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Ag0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Mg0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Ca0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Zn0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Cd0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Cr0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Mn0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Fe0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Co0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Ni0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Ce0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Pr0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Nd0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Pm0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Sm0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Eu0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Gd0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Tb0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Dy0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Ho0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Er0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Tm0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Yb0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Lu0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.75Eu0.25Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.875Eu0.125Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.75Ho0.25Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.875Ho0.125Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.75Yb0.25Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.875Yb0.125Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.6Li0.4Ti2O6.6</t>
+  </si>
+  <si>
+    <t>Bi1.5Na0.125Ti2O6.3125</t>
+  </si>
+  <si>
+    <t>Bi1.5Ga0.25Ti2O6.625</t>
+  </si>
+  <si>
+    <t>Bi1.5In0.25Ti2O6.625</t>
+  </si>
+  <si>
+    <t>Bi1.75In0.25Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.875In0.125Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.9375In0.0625Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Sc0.25Ti2O6.625</t>
+  </si>
+  <si>
+    <t>Bi1.75Sc0.25Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.875Sc0.125Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.9375Sc0.0625Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Al0.25Ti2O6.625</t>
+  </si>
+  <si>
+    <t>Bi2Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Al0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Sc0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Ga0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5Y0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5In0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi1.5La0.5Ti2O7</t>
+  </si>
+  <si>
+    <t>Bi4Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi3.5Al0.5Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi3.5Ga0.5Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi3.5In0.5Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi3.5Sc0.5Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi3.5Y0.5Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi3.5La0.5Ti3O12</t>
+  </si>
+  <si>
+    <t>Bi4Ti2.5Al0.5O12</t>
+  </si>
+  <si>
+    <t>Bi4Ti2.5Ga0.5O12</t>
+  </si>
+  <si>
+    <t>Bi4Ti2.5Sc0.5O12</t>
+  </si>
+  <si>
+    <t>Bi12TiO20</t>
+  </si>
+  <si>
+    <t>BaTaO2N</t>
+  </si>
+  <si>
+    <t>BaTa0.5Al0.5O2N</t>
+  </si>
+  <si>
+    <t>BaTa0.5Mg0.5O2N</t>
+  </si>
+  <si>
+    <t>BaTa0.5Al0.25Mg0.25O2N</t>
+  </si>
+  <si>
+    <t>BaTa0.5Al0.125Mg0.375O2N</t>
+  </si>
+  <si>
+    <t>BaTa0.5Al0.375Mg0.125O2N</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>TiO2</t>
+  </si>
+  <si>
+    <t>Ta2O5</t>
+  </si>
+  <si>
+    <t>Fe2O3</t>
+  </si>
+  <si>
+    <t>NaLaTi2O6</t>
+  </si>
+  <si>
+    <t>NaCl</t>
+  </si>
+  <si>
+    <t>Bi4Ti2O11</t>
+  </si>
+  <si>
+    <t>Ta1.94Eu0.06O5</t>
+  </si>
+  <si>
+    <t>Bi1.5Li0.2Na0.2Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.3Li0.2Na0.2La0.2Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.3Li0.2Na0.2Eu0.2Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.1Li0.2Na0.2Eu0.2Mg0.5Nb1.5O6.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,12 +320,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,23 +685,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A36"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/to_predict.xlsx
+++ b/to_predict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python\python_work\works\working_pythons\BandGapPredictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEB7BF9-8CBC-448D-B730-F6B00C014CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023CA271-0DE2-4567-8CF9-315288338C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="17880" windowHeight="8445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
   <si>
     <t>Composition</t>
   </si>
@@ -274,7 +274,115 @@
     <t>Bi1.3Li0.2Na0.2Eu0.2Mg0.5Nb1.5O6.7</t>
   </si>
   <si>
-    <t>Bi1.1Li0.2Na0.2Eu0.2Mg0.5Nb1.5O6.7</t>
+    <t>Bi1.5Mg1.0Nb1.5O7.0</t>
+  </si>
+  <si>
+    <t>Bi1.5Mg0.9Na0.1Nb1.5O6.95</t>
+  </si>
+  <si>
+    <t>Bi1.5Mg0.75Na0.25Nb1.5O6.875</t>
+  </si>
+  <si>
+    <t>Bi1.5Mg0.65Na0.25Nb1.5O6.775</t>
+  </si>
+  <si>
+    <t>Bi1.5Mg0.5Na0.4Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.5Mg0.65Li0.25Nb1.5O6.775</t>
+  </si>
+  <si>
+    <t>Bi1.5Mg0.5Li0.4Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.0Eu0.5Li0.4Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.1Eu0.4Li0.4Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.2Eu0.3Li0.4Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.3Eu0.2Li0.4Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.4Eu0.1Li0.4Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.0Eu0.5Na0.4Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.1Eu0.4Na0.4Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.2Eu0.3Na0.4Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.3Eu0.2Na0.4Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.4Eu0.1Na0.4Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.5Mg0.9Nb1.5O6.9</t>
+  </si>
+  <si>
+    <t>Bi1.5Mg0.5Al0.4Nb1.5O7.1</t>
+  </si>
+  <si>
+    <t>Bi1.5Zn0.9Nb1.5O6.9</t>
+  </si>
+  <si>
+    <t>Bi1.5Zn0.5Al0.4Nb1.5O7.1</t>
+  </si>
+  <si>
+    <t>Bi1.3Li0.45Al0.45Nb1.5O6.6</t>
+  </si>
+  <si>
+    <t>Bi1.3Li0.45Ga0.45Nb1.5O6.6</t>
+  </si>
+  <si>
+    <t>Bi1.3Li0.45In0.45Nb1.5O6.6</t>
+  </si>
+  <si>
+    <t>Bi1.5Mg0.5Ga0.4Nb1.5O7.1</t>
+  </si>
+  <si>
+    <t>Bi1.5Mg0.5In0.4Nb1.5O7.1</t>
+  </si>
+  <si>
+    <t>Bi1.5Zn0.5Ga0.4Nb1.5O7.1</t>
+  </si>
+  <si>
+    <t>Bi1.5Zn0.5In0.4Nb1.5O7.1</t>
+  </si>
+  <si>
+    <t>Bi1.3Na0.45Al0.45Nb1.5O6.6</t>
+  </si>
+  <si>
+    <t>Bi1.3Na0.45Ga0.45Nb1.5O6.6</t>
+  </si>
+  <si>
+    <t>Bi1.3Na0.45In0.45Nb1.5O6.6</t>
+  </si>
+  <si>
+    <t>Bi1.56Cu0.39Mg0.39Nb1.56O7.02</t>
+  </si>
+  <si>
+    <t>Bi1.46Li0.1Cu0.38Mg0.39Nb1.56O6.91</t>
+  </si>
+  <si>
+    <t>Bi1.35Li0.21Cu0.38Mg0.39Nb1.56O6.8</t>
+  </si>
+  <si>
+    <t>Bi1.1Li0.2Na0.2La0.2Eu0.2Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi0.9Li0.2Na0.2La0.3Eu0.3Mg0.5Nb1.5O6.7</t>
+  </si>
+  <si>
+    <t>Bi1.56Cu0.19Mg0.58Nb1.56O7.01</t>
   </si>
 </sst>
 </file>
@@ -685,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,373 +901,553 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>70</v>
+      <c r="A23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>71</v>
+      <c r="A24" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>72</v>
+      <c r="A25" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>73</v>
+      <c r="A26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>74</v>
+      <c r="A27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>75</v>
+      <c r="A28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>76</v>
+      <c r="A29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>77</v>
+      <c r="A30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>78</v>
+      <c r="A31" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>12</v>
+      <c r="A32" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>79</v>
+      <c r="A34" t="s">
+        <v>15</v>
       </c>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>80</v>
+      <c r="A35" t="s">
+        <v>16</v>
       </c>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>35</v>
+      <c r="A74" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>36</v>
+      <c r="A75" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>37</v>
+      <c r="A76" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>38</v>
+      <c r="A77" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>39</v>
+      <c r="A78" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>40</v>
+      <c r="A79" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>41</v>
+      <c r="A80" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>42</v>
+      <c r="A81" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>43</v>
+      <c r="A82" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>44</v>
+      <c r="A83" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>45</v>
+      <c r="A84" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>46</v>
+      <c r="A85" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>47</v>
+      <c r="A86" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/to_predict.xlsx
+++ b/to_predict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python\python_work\works\working_pythons\BandGapPredictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023CA271-0DE2-4567-8CF9-315288338C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDC6714-B0A2-4100-BD16-F7FFE07BE584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="17880" windowHeight="8445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="17880" windowHeight="8445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,249 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Composition</t>
-  </si>
-  <si>
-    <t>Bi1.75Al0.25Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.875Al0.125Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.9375Al0.0625Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Li0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Na0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Cu0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Ag0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Mg0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Ca0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Zn0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Cd0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Cr0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Mn0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Fe0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Co0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Ni0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Ce0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Pr0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Nd0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Pm0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Sm0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Eu0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Gd0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Tb0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Dy0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Ho0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Er0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Tm0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Yb0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Lu0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.75Eu0.25Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.875Eu0.125Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.75Ho0.25Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.875Ho0.125Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.75Yb0.25Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.875Yb0.125Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.6Li0.4Ti2O6.6</t>
-  </si>
-  <si>
-    <t>Bi1.5Na0.125Ti2O6.3125</t>
-  </si>
-  <si>
-    <t>Bi1.5Ga0.25Ti2O6.625</t>
-  </si>
-  <si>
-    <t>Bi1.5In0.25Ti2O6.625</t>
-  </si>
-  <si>
-    <t>Bi1.75In0.25Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.875In0.125Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.9375In0.0625Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Sc0.25Ti2O6.625</t>
-  </si>
-  <si>
-    <t>Bi1.75Sc0.25Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.875Sc0.125Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.9375Sc0.0625Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Al0.25Ti2O6.625</t>
-  </si>
-  <si>
-    <t>Bi2Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Al0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Sc0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Ga0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5Y0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5In0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi1.5La0.5Ti2O7</t>
-  </si>
-  <si>
-    <t>Bi4Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi3.5Al0.5Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi3.5Ga0.5Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi3.5In0.5Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi3.5Sc0.5Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi3.5Y0.5Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi3.5La0.5Ti3O12</t>
-  </si>
-  <si>
-    <t>Bi4Ti2.5Al0.5O12</t>
-  </si>
-  <si>
-    <t>Bi4Ti2.5Ga0.5O12</t>
-  </si>
-  <si>
-    <t>Bi4Ti2.5Sc0.5O12</t>
-  </si>
-  <si>
-    <t>Bi12TiO20</t>
-  </si>
-  <si>
-    <t>BaTaO2N</t>
-  </si>
-  <si>
-    <t>BaTa0.5Al0.5O2N</t>
-  </si>
-  <si>
-    <t>BaTa0.5Mg0.5O2N</t>
-  </si>
-  <si>
-    <t>BaTa0.5Al0.25Mg0.25O2N</t>
-  </si>
-  <si>
-    <t>BaTa0.5Al0.125Mg0.375O2N</t>
-  </si>
-  <si>
-    <t>BaTa0.5Al0.375Mg0.125O2N</t>
-  </si>
-  <si>
-    <t>Al2O3</t>
-  </si>
-  <si>
-    <t>TiO2</t>
-  </si>
-  <si>
-    <t>Ta2O5</t>
-  </si>
-  <si>
-    <t>Fe2O3</t>
-  </si>
-  <si>
-    <t>NaLaTi2O6</t>
-  </si>
-  <si>
-    <t>NaCl</t>
-  </si>
-  <si>
-    <t>Bi4Ti2O11</t>
-  </si>
-  <si>
-    <t>Ta1.94Eu0.06O5</t>
   </si>
   <si>
     <t>Bi1.5Li0.2Na0.2Mg0.5Nb1.5O6.7</t>
@@ -795,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,644 +570,353 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
+      <c r="A22" s="2"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>15</v>
-      </c>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
+    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
+    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>28</v>
-      </c>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A75" s="2"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A81" s="2"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A83" s="2"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A85" s="2"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
